--- a/Python Scripts/web scraping/abstract_links.xlsx
+++ b/Python Scripts/web scraping/abstract_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,111 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sample Size Determination in Survey Research</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?view_op=view_citation&amp;hl=en&amp;oe=ASCII&amp;user=DHXqQUMAAAAJ&amp;pagesize=100&amp;citation_for_view=DHXqQUMAAAAJ:SjuI4pbJlxcC</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>(1) AM Adam</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Timing of surgery following SARS-CoV-2 infection: an international prospective cohort study.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?view_op=view_citation&amp;hl=en&amp;oe=ASCII&amp;user=sV_RHK4AAAAJ&amp;pagesize=100&amp;citation_for_view=sV_RHK4AAAAJ:WF5omc3nYNoC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>(1) D Nepogodiev, JFF Simoes, E Li, M Picciochi, JC Glasbey, ...</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Timing of surgery following SARS‐CoV‐2 infection: an international prospective cohort study</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?view_op=view_citation&amp;hl=en&amp;oe=ASCII&amp;user=83a3zgkAAAAJ&amp;pagesize=100&amp;citation_for_view=83a3zgkAAAAJ:kNdYIx-mwKoC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>(5) H Gacaferi, GS Collaborative, COVIDSurg Collaborative</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mortality, morbidity, and hospitalisations due to influenza lower respiratory tract infections, 2017: an analysis for the Global Burden of Disease Study 2017</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?view_op=view_citation&amp;hl=en&amp;oe=ASCII&amp;user=ioyC8AcAAAAJ&amp;pagesize=100&amp;citation_for_view=ioyC8AcAAAAJ:bFI3QPDXJZMC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>(1) CE Troeger, BF Blacker, IA Khalil, SRM Zimsen, SB Albertson, D Abate, ...</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>The global burden of cancer attributable to risk factors, 2010–19: a systematic analysis for the Global Burden of Disease Study 2019</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?view_op=view_citation&amp;hl=en&amp;oe=ASCII&amp;user=JEpmvgsAAAAJ&amp;pagesize=100&amp;citation_for_view=JEpmvgsAAAAJ:aqlVkmm33-oC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>(1) KB Tran, JJ Lang, K Compton, R Xu, AR Acheson, HJ Henrikson, ...</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
